--- a/data-raw/Metadata/Raw Catch - ByCatch - Metadata.xlsx
+++ b/data-raw/Metadata/Raw Catch - ByCatch - Metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory Starr\Desktop\EDI\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA\data-stewardship\EDI_data_repos_to_upload\stanislaus_rst_edi\data-raw\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60565D4-C71E-4B20-AD4D-899D11AFA150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10740" tabRatio="834"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -26,11 +27,6 @@
     <sheet name="code_definitions" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -373,9 +369,6 @@
     <t>number of fish</t>
   </si>
   <si>
-    <t>millimeters (mm)</t>
-  </si>
-  <si>
     <t>Black crappie</t>
   </si>
   <si>
@@ -695,12 +688,15 @@
   </si>
   <si>
     <t>CVPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">millimeter </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -764,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -804,6 +800,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1187,10 +1189,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1219,10 +1221,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Point, LineString, LinearRing, Polygon, Multipoint, MultiLineString, MultiPolygon, MultiGeometry"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"tabular, vector, raster"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1231,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1283,28 +1285,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="J2" s="19">
         <v>168167</v>
@@ -1312,28 +1314,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="J3" s="19">
         <v>168141</v>
@@ -1341,28 +1343,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J4" s="19">
         <v>164043</v>
@@ -1370,28 +1372,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="19">
         <v>163998</v>
@@ -1399,28 +1401,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F6" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="J6" s="19">
         <v>163517</v>
@@ -1428,28 +1430,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="H7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="J7" s="19">
         <v>163368</v>
@@ -1457,28 +1459,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F8" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="H8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="J8" s="19">
         <v>163350</v>
@@ -1486,28 +1488,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="19">
         <v>168132</v>
@@ -1515,28 +1517,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="H10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="J10" s="19">
         <v>163587</v>
@@ -1544,28 +1546,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F11" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="J11" s="19">
         <v>165993</v>
@@ -1573,28 +1575,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="J12" s="19">
         <v>168160</v>
@@ -1602,7 +1604,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J13" s="19">
         <v>250</v>
@@ -1610,28 +1612,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="J14" s="19">
         <v>159698</v>
@@ -1639,28 +1641,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F15" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="J15" s="19">
         <v>167233</v>
@@ -1668,28 +1670,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J16" s="19">
         <v>168154</v>
@@ -1697,28 +1699,28 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F17" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="I17" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J17" s="19">
         <v>167234</v>
@@ -1726,28 +1728,28 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F18" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="H18" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="J18" s="19">
         <v>163524</v>
@@ -1755,28 +1757,28 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F19" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="J19" s="19">
         <v>163908</v>
@@ -1784,28 +1786,28 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F20" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J20" s="19">
         <v>550562</v>
@@ -1813,28 +1815,28 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F21" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="H21" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="J21" s="19">
         <v>163387</v>
@@ -1842,28 +1844,28 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H22" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J22" s="19">
         <v>168161</v>
@@ -1871,22 +1873,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F23" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J23" s="19">
         <v>163892</v>
@@ -1894,28 +1896,28 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="H24" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="J24" s="19">
         <v>161738</v>
@@ -1923,28 +1925,28 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F25" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="J25" s="19">
         <v>553322</v>
@@ -1952,25 +1954,25 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H26" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J26" s="19">
         <v>168158</v>
@@ -1978,16 +1980,16 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="J27" s="19">
         <v>161030</v>
@@ -1995,28 +1997,28 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F28" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="19">
         <v>163995</v>
@@ -2024,28 +2026,28 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F29" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H29" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J29" s="19">
         <v>168093</v>
@@ -2053,28 +2055,28 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J30" s="19">
         <v>159697</v>
@@ -2082,28 +2084,28 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="H31" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J31" s="19">
         <v>163342</v>
@@ -2111,28 +2113,28 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="I32" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J32" s="19">
         <v>167229</v>
@@ -2140,28 +2142,28 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F33" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H33" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J33" s="19">
         <v>168130</v>
@@ -2169,28 +2171,28 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="I34" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J34" s="19">
         <v>165878</v>
@@ -2198,28 +2200,28 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="I35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J35" s="19">
         <v>164037</v>
@@ -2227,28 +2229,28 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="I36" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J36" s="19">
         <v>168166</v>
@@ -2256,7 +2258,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"chinook, steelhead, delta_smelt, white_sturgeon, green_sturgeon"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2266,10 +2268,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMG11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2364,7 +2368,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="126" x14ac:dyDescent="0.25">
@@ -2392,7 +2396,7 @@
         <v>96</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -2454,8 +2458,8 @@
       <c r="F8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>102</v>
+      <c r="G8" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>100</v>
@@ -2483,8 +2487,8 @@
       <c r="F9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>102</v>
+      <c r="G9" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>100</v>
@@ -2527,19 +2531,19 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2549,7 +2553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2580,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
@@ -2648,7 +2652,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1005" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"creator,field technician,program founder,other,associate,reviewer,researcher,principal investigator,lab technician"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2659,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2680,10 +2684,10 @@
     </row>
     <row r="2" spans="1:2" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2714,12 +2718,12 @@
     </row>
     <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2738,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2760,7 +2764,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>10</v>
@@ -2777,7 +2781,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"CCO, CCBY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2787,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2823,7 +2827,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"creator,field technician,program founder,other,associate,reviewer,researcher,principal investigator,lab technician"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2833,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2880,7 +2884,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check default funding values from dropdown menu before manually adding funding information _x000a_" sqref="A1:A1048576">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check default funding values from dropdown menu before manually adding funding information _x000a_" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"USBR, CDWR, CDFW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2890,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2918,14 +2922,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A38:A1002">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A38:A1002" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"completed,ongoing"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"daily, weekly, monthly, annually"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"complete, ongoing "</formula1>
     </dataValidation>
   </dataValidations>
@@ -2935,7 +2939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2975,7 +2979,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2">
         <v>-121.179152</v>
@@ -3016,7 +3020,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G8 G3">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G8 G3" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>F2</formula1>
     </dataValidation>
   </dataValidations>
@@ -3026,6 +3030,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010062F3A0D97C24D44188E22ED6BF629E5F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d417724eab557a4a1613df09cf549db5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0babd99f-cddb-4efe-bfbd-78b0de5d1c16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452ce7caafae2949ffe48c11a29016ca" ns2:_="">
     <xsd:import namespace="0babd99f-cddb-4efe-bfbd-78b0de5d1c16"/>
@@ -3215,22 +3234,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4324EA-0DD5-429A-A6A3-8853D3F17487}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="0babd99f-cddb-4efe-bfbd-78b0de5d1c16"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7069DB4E-2E54-4EC8-AFE1-B50A3BCE1246}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9B1783C-B3FB-44F3-8C80-B8883BF74C35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3246,28 +3274,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4324EA-0DD5-429A-A6A3-8853D3F17487}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="0babd99f-cddb-4efe-bfbd-78b0de5d1c16"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7069DB4E-2E54-4EC8-AFE1-B50A3BCE1246}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>